--- a/biology/Médecine/Tronc_artériel_commun/Tronc_artériel_commun.xlsx
+++ b/biology/Médecine/Tronc_artériel_commun/Tronc_artériel_commun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tronc_art%C3%A9riel_commun</t>
+          <t>Tronc_artériel_commun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tronc artériel commun est une cardiopathie congénitale dans laquelle une artère unique assure l'éjection du sang venant à la fois du ventricule gauche et du ventricule droit. De ce tronc artériel qui surplombe les deux ventricules, émergent l'aorte, l'artère pulmonaire et les coronaires.
-Le tronc artériel commun est classé en plusieurs types selon l'aspect et la localisation de l'artère pulmonaire émergente du tronc commun[1]. Une autre classification divise le tronc artériel commun en deux groupes selon l'existence ou non d'une communication inter-ventriculaire[2].
-La présence d'un diabète maternel avant la grossesse augmenterait de façon sensible cette malformation[3].
+Le tronc artériel commun est classé en plusieurs types selon l'aspect et la localisation de l'artère pulmonaire émergente du tronc commun. Une autre classification divise le tronc artériel commun en deux groupes selon l'existence ou non d'une communication inter-ventriculaire.
+La présence d'un diabète maternel avant la grossesse augmenterait de façon sensible cette malformation.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tronc_art%C3%A9riel_commun</t>
+          <t>Tronc_artériel_commun</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Physiopathologie &amp; embryologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette anomalie résulte de l'absence de septation du truncus. La septation du truncus est responsable de la septation du septum infundibulaire entraînant une communication inter-ventriculaire. Il s'agit d'une cardiopathie cyanogène obligatoire.
 En fonction de la naissance de l'artère pulmonaire, on distingue plusieurs types :
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tronc_art%C3%A9riel_commun</t>
+          <t>Tronc_artériel_commun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,13 +566,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anténatal
-Aspects échographiques avant la naissance
-Le diagnostic se pose sur la constatation d'une aorte à cheval sur le septum interventriculaire
-Gestion de la grossesse
-Prise en charge du nouveau-né
-Postnatal
-Les signes cliniques apparaitront toujours en période néonatale
+          <t>Anténatal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Aspects échographiques avant la naissance</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diagnostic se pose sur la constatation d'une aorte à cheval sur le septum interventriculaire
 </t>
         </is>
       </c>
@@ -569,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Tronc_art%C3%A9riel_commun</t>
+          <t>Tronc_artériel_commun</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +602,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Diagnostic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Postnatal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les signes cliniques apparaitront toujours en période néonatale
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tronc_artériel_commun</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tronc_art%C3%A9riel_commun</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Intervention chirurgicale avant un mois pour 
 limiter le risque d'hypertension artérielle pulmonaire.
@@ -597,39 +654,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Tronc_art%C3%A9riel_commun</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tronc_art%C3%A9riel_commun</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Devenir des enfants</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tronc_art%C3%A9riel_commun</t>
+          <t>Tronc_artériel_commun</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,16 +675,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Conseil génétique</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le tronc artériel commun entre dans le spectre des manifestations du Syndrome de DiGeorge, un conseil génétique est souhaitable dans ce cas.
-En l'absence d'anomalie génétique, Le risque d'avoir un autre enfant atteint de cette pathologie est de 1 % mais passe à 3 % si deux enfants sont atteints[4]
-</t>
-        </is>
-      </c>
+          <t>Devenir des enfants</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -661,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Tronc_art%C3%A9riel_commun</t>
+          <t>Tronc_artériel_commun</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,10 +703,46 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Conseil génétique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tronc artériel commun entre dans le spectre des manifestations du Syndrome de DiGeorge, un conseil génétique est souhaitable dans ce cas.
+En l'absence d'anomalie génétique, Le risque d'avoir un autre enfant atteint de cette pathologie est de 1 % mais passe à 3 % si deux enfants sont atteints
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tronc_artériel_commun</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tronc_art%C3%A9riel_commun</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
